--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam23-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam23-Itga4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1448543333333333</v>
+        <v>0.165747</v>
       </c>
       <c r="H2">
-        <v>0.434563</v>
+        <v>0.497241</v>
       </c>
       <c r="I2">
-        <v>0.007514552731137001</v>
+        <v>0.008095785894995438</v>
       </c>
       <c r="J2">
-        <v>0.007514552731137001</v>
+        <v>0.00809578589499544</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N2">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O2">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P2">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q2">
-        <v>3.427239282657222</v>
+        <v>0.023523863971</v>
       </c>
       <c r="R2">
-        <v>30.845153543915</v>
+        <v>0.211714775739</v>
       </c>
       <c r="S2">
-        <v>0.002252858356294496</v>
+        <v>2.091189082327577E-05</v>
       </c>
       <c r="T2">
-        <v>0.002252858356294496</v>
+        <v>2.091189082327577E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1448543333333333</v>
+        <v>0.165747</v>
       </c>
       <c r="H3">
-        <v>0.434563</v>
+        <v>0.497241</v>
       </c>
       <c r="I3">
-        <v>0.007514552731137001</v>
+        <v>0.008095785894995438</v>
       </c>
       <c r="J3">
-        <v>0.007514552731137001</v>
+        <v>0.00809578589499544</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.230717</v>
       </c>
       <c r="O3">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P3">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q3">
-        <v>0.01114011907455555</v>
+        <v>0.012746883533</v>
       </c>
       <c r="R3">
-        <v>0.100261071671</v>
+        <v>0.114721951797</v>
       </c>
       <c r="S3">
-        <v>7.322835751278443E-06</v>
+        <v>1.133153282588788E-05</v>
       </c>
       <c r="T3">
-        <v>7.322835751278443E-06</v>
+        <v>1.133153282588788E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1448543333333333</v>
+        <v>0.165747</v>
       </c>
       <c r="H4">
-        <v>0.434563</v>
+        <v>0.497241</v>
       </c>
       <c r="I4">
-        <v>0.007514552731137001</v>
+        <v>0.008095785894995438</v>
       </c>
       <c r="J4">
-        <v>0.007514552731137001</v>
+        <v>0.00809578589499544</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N4">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O4">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P4">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q4">
-        <v>0.2850413634771111</v>
+        <v>0.433261166277</v>
       </c>
       <c r="R4">
-        <v>2.565372271294</v>
+        <v>3.899350496493001</v>
       </c>
       <c r="S4">
-        <v>0.0001873688308979424</v>
+        <v>0.0003851539958877172</v>
       </c>
       <c r="T4">
-        <v>0.0001873688308979424</v>
+        <v>0.0003851539958877173</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1448543333333333</v>
+        <v>0.165747</v>
       </c>
       <c r="H5">
-        <v>0.434563</v>
+        <v>0.497241</v>
       </c>
       <c r="I5">
-        <v>0.007514552731137001</v>
+        <v>0.008095785894995438</v>
       </c>
       <c r="J5">
-        <v>0.007514552731137001</v>
+        <v>0.00809578589499544</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N5">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O5">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P5">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q5">
-        <v>7.708354445955445</v>
+        <v>8.637447830023001</v>
       </c>
       <c r="R5">
-        <v>69.37519001359901</v>
+        <v>77.737030470207</v>
       </c>
       <c r="S5">
-        <v>0.005067002708193284</v>
+        <v>0.007678388475458558</v>
       </c>
       <c r="T5">
-        <v>0.005067002708193284</v>
+        <v>0.007678388475458558</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>43.483467</v>
       </c>
       <c r="I6">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="J6">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N6">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O6">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P6">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q6">
-        <v>342.9381844485817</v>
+        <v>2.057149677310334</v>
       </c>
       <c r="R6">
-        <v>3086.443660037235</v>
+        <v>18.514347095793</v>
       </c>
       <c r="S6">
-        <v>0.2254266745940312</v>
+        <v>0.001828733983162118</v>
       </c>
       <c r="T6">
-        <v>0.2254266745940311</v>
+        <v>0.001828733983162118</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>43.483467</v>
       </c>
       <c r="I7">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="J7">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.230717</v>
       </c>
       <c r="O7">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P7">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q7">
         <v>1.114708339537667</v>
@@ -883,10 +883,10 @@
         <v>10.032375055839</v>
       </c>
       <c r="S7">
-        <v>0.0007327413671599661</v>
+        <v>0.0009909366558548318</v>
       </c>
       <c r="T7">
-        <v>0.0007327413671599661</v>
+        <v>0.0009909366558548318</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>43.483467</v>
       </c>
       <c r="I8">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="J8">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N8">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O8">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P8">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q8">
-        <v>28.52195590142733</v>
+        <v>37.888463795599</v>
       </c>
       <c r="R8">
-        <v>256.697603112846</v>
+        <v>340.996174160391</v>
       </c>
       <c r="S8">
-        <v>0.01874859657904437</v>
+        <v>0.03368151674962783</v>
       </c>
       <c r="T8">
-        <v>0.01874859657904437</v>
+        <v>0.03368151674962783</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>43.483467</v>
       </c>
       <c r="I9">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="J9">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N9">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O9">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P9">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q9">
-        <v>771.3173375897325</v>
+        <v>755.3403232658344</v>
       </c>
       <c r="R9">
-        <v>6941.856038307592</v>
+        <v>6798.06290939251</v>
       </c>
       <c r="S9">
-        <v>0.5070170379223111</v>
+        <v>0.6714710811976136</v>
       </c>
       <c r="T9">
-        <v>0.5070170379223111</v>
+        <v>0.6714710811976135</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.545982333333334</v>
+        <v>5.642879333333333</v>
       </c>
       <c r="H10">
-        <v>13.637947</v>
+        <v>16.928638</v>
       </c>
       <c r="I10">
-        <v>0.235830183140193</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="J10">
-        <v>0.2358301831401929</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N10">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O10">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P10">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q10">
-        <v>107.5574949850706</v>
+        <v>0.8008731732224446</v>
       </c>
       <c r="R10">
-        <v>968.0174548656349</v>
+        <v>7.207858559002</v>
       </c>
       <c r="S10">
-        <v>0.07070174603371998</v>
+        <v>0.0007119481893945944</v>
       </c>
       <c r="T10">
-        <v>0.07070174603371997</v>
+        <v>0.0007119481893945943</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.545982333333334</v>
+        <v>5.642879333333333</v>
       </c>
       <c r="H11">
-        <v>13.637947</v>
+        <v>16.928638</v>
       </c>
       <c r="I11">
-        <v>0.235830183140193</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="J11">
-        <v>0.2358301831401929</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.230717</v>
       </c>
       <c r="O11">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P11">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q11">
-        <v>0.3496118019998889</v>
+        <v>0.4339693970495555</v>
       </c>
       <c r="R11">
-        <v>3.146506217999</v>
+        <v>3.905724573446</v>
       </c>
       <c r="S11">
-        <v>0.0002298135042919912</v>
+        <v>0.0003857835882289935</v>
       </c>
       <c r="T11">
-        <v>0.0002298135042919912</v>
+        <v>0.0003857835882289935</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.545982333333334</v>
+        <v>5.642879333333333</v>
       </c>
       <c r="H12">
-        <v>13.637947</v>
+        <v>16.928638</v>
       </c>
       <c r="I12">
-        <v>0.235830183140193</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="J12">
-        <v>0.2358301831401929</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N12">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O12">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P12">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q12">
-        <v>8.945490085231777</v>
+        <v>14.75043579141933</v>
       </c>
       <c r="R12">
-        <v>80.50941076708598</v>
+        <v>132.753922122774</v>
       </c>
       <c r="S12">
-        <v>0.005880220325333958</v>
+        <v>0.01311262058164281</v>
       </c>
       <c r="T12">
-        <v>0.005880220325333957</v>
+        <v>0.01311262058164281</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.545982333333334</v>
+        <v>5.642879333333333</v>
       </c>
       <c r="H13">
-        <v>13.637947</v>
+        <v>16.928638</v>
       </c>
       <c r="I13">
-        <v>0.235830183140193</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="J13">
-        <v>0.2358301831401929</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N13">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O13">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P13">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q13">
-        <v>241.9122874960701</v>
+        <v>294.0630952764251</v>
       </c>
       <c r="R13">
-        <v>2177.210587464631</v>
+        <v>2646.567857487826</v>
       </c>
       <c r="S13">
-        <v>0.159018403276847</v>
+        <v>0.2614117880955308</v>
       </c>
       <c r="T13">
-        <v>0.159018403276847</v>
+        <v>0.2614117880955307</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.09118199999999999</v>
+        <v>0.1701286666666667</v>
       </c>
       <c r="H14">
-        <v>0.273546</v>
+        <v>0.510386</v>
       </c>
       <c r="I14">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="J14">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N14">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O14">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P14">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q14">
-        <v>2.15735715377</v>
+        <v>0.02414573785488889</v>
       </c>
       <c r="R14">
-        <v>19.41621438393</v>
+        <v>0.217311640694</v>
       </c>
       <c r="S14">
-        <v>0.001418115191424337</v>
+        <v>2.146471491636536E-05</v>
       </c>
       <c r="T14">
-        <v>0.001418115191424337</v>
+        <v>2.146471491636536E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.09118199999999999</v>
+        <v>0.1701286666666667</v>
       </c>
       <c r="H15">
-        <v>0.273546</v>
+        <v>0.510386</v>
       </c>
       <c r="I15">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="J15">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.230717</v>
       </c>
       <c r="O15">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P15">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q15">
-        <v>0.007012412497999999</v>
+        <v>0.01308385852911111</v>
       </c>
       <c r="R15">
-        <v>0.063111712482</v>
+        <v>0.117754726762</v>
       </c>
       <c r="S15">
-        <v>4.609532860411982E-06</v>
+        <v>1.16310917902458E-05</v>
       </c>
       <c r="T15">
-        <v>4.609532860411982E-06</v>
+        <v>1.16310917902458E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.09118199999999999</v>
+        <v>0.1701286666666667</v>
       </c>
       <c r="H16">
-        <v>0.273546</v>
+        <v>0.510386</v>
       </c>
       <c r="I16">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="J16">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N16">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O16">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P16">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q16">
-        <v>0.1794260551719999</v>
+        <v>0.4447148035086667</v>
       </c>
       <c r="R16">
-        <v>1.614834496547999</v>
+        <v>4.002433231578</v>
       </c>
       <c r="S16">
-        <v>0.000117943760091882</v>
+        <v>0.0003953358780654621</v>
       </c>
       <c r="T16">
-        <v>0.000117943760091882</v>
+        <v>0.0003953358780654621</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.09118199999999999</v>
+        <v>0.1701286666666667</v>
       </c>
       <c r="H17">
-        <v>0.273546</v>
+        <v>0.510386</v>
       </c>
       <c r="I17">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="J17">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N17">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O17">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P17">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q17">
-        <v>4.852206757762</v>
+        <v>8.865786305180222</v>
       </c>
       <c r="R17">
-        <v>43.66986081985799</v>
+        <v>79.792076746622</v>
       </c>
       <c r="S17">
-        <v>0.003189545181746812</v>
+        <v>0.007881373379177083</v>
       </c>
       <c r="T17">
-        <v>0.003189545181746812</v>
+        <v>0.007881373379177081</v>
       </c>
     </row>
   </sheetData>
